--- a/results/min_var_portfolio/min_var_2018.xlsx
+++ b/results/min_var_portfolio/min_var_2018.xlsx
@@ -531,7 +531,7 @@
         <v>-0.1950305153348493</v>
       </c>
       <c r="N2" t="n">
-        <v>0.09675834862842778</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +577,7 @@
         <v>-0.08070959666124017</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1189879866898798</v>
+        <v>0.1398479931319728</v>
       </c>
     </row>
     <row r="4">
@@ -623,7 +623,7 @@
         <v>0.03789457864047091</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001000000000000015</v>
+        <v>0.007922667858385166</v>
       </c>
     </row>
     <row r="5">
@@ -715,7 +715,7 @@
         <v>0.03716505327331571</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001000000000000006</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>-0.08489102954496172</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001000000000000009</v>
+        <v>0.001000000000000005</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +807,7 @@
         <v>-0.0236097065834998</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3461502138555902</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -853,7 +853,7 @@
         <v>-0.1098850800430211</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001000000000000002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.06873576106590286</v>
       </c>
       <c r="N11" t="n">
-        <v>0.06861765168348849</v>
+        <v>0.07296069780610072</v>
       </c>
     </row>
     <row r="12">
@@ -991,7 +991,7 @@
         <v>0.04605835484477692</v>
       </c>
       <c r="N12" t="n">
-        <v>0.05343857933238319</v>
+        <v>0.06806522584086927</v>
       </c>
     </row>
     <row r="13">
@@ -1037,7 +1037,7 @@
         <v>-0.05782806194386211</v>
       </c>
       <c r="N13" t="n">
-        <v>0.001</v>
+        <v>0.03061350869190371</v>
       </c>
     </row>
     <row r="14">
@@ -1083,7 +1083,7 @@
         <v>-0.0007833921278040449</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1494767842038575</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
         <v>-0.0742562352518025</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001000000000000003</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="16">
@@ -1175,7 +1175,7 @@
         <v>0.0322718882801435</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04146419260131833</v>
+        <v>0.07526094837697749</v>
       </c>
     </row>
     <row r="17">
@@ -1221,7 +1221,7 @@
         <v>-0.03592680163922606</v>
       </c>
       <c r="N17" t="n">
-        <v>0.004860944951149145</v>
+        <v>0.01022751055084323</v>
       </c>
     </row>
     <row r="18">
@@ -1267,7 +1267,7 @@
         <v>-0.07330433669583229</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001000000000000005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="19">
@@ -1359,7 +1359,7 @@
         <v>0.03411110658447609</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1092452980539056</v>
+        <v>0.1361014477429478</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>-0.1225447107352702</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001000000000000004</v>
+        <v>0.001000000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -1415,40 +1415,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02230472031489882</v>
+        <v>-0.01873928690977155</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08833348520364014</v>
+        <v>0.08335350925606616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0823234403035274</v>
+        <v>0.09346953300218509</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.09923583652612436</v>
+        <v>-0.1328983601556065</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0331507581871047</v>
+        <v>-0.03016696668154265</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0254040489265676</v>
+        <v>-0.01654894083654105</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04247634576653619</v>
+        <v>0.02576982480353973</v>
       </c>
       <c r="I22" t="n">
-        <v>0.07483567768950143</v>
+        <v>0.07630795323203993</v>
       </c>
       <c r="J22" t="n">
-        <v>0.05163659250585984</v>
+        <v>0.03505692427426015</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05288152861832152</v>
+        <v>0.038204404226788</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.04894248841371674</v>
+        <v>-0.02202903048723463</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.02519042910022097</v>
+        <v>-0.03129112320296311</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1459,43 +1459,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9779421907911152</v>
+        <v>0.9814352018953287</v>
       </c>
       <c r="C23" t="n">
-        <v>1.092352344637495</v>
+        <v>1.086925979034573</v>
       </c>
       <c r="D23" t="n">
-        <v>1.085806946769004</v>
+        <v>1.097977150764249</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9055291259959374</v>
+        <v>0.8755540787667234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9673927062244051</v>
+        <v>0.9702835150043794</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9749159187069563</v>
+        <v>0.9835872406303389</v>
       </c>
       <c r="H23" t="n">
-        <v>1.043391375458586</v>
+        <v>1.026104737429997</v>
       </c>
       <c r="I23" t="n">
-        <v>1.077707045022129</v>
+        <v>1.07929489533631</v>
       </c>
       <c r="J23" t="n">
-        <v>1.052993007423002</v>
+        <v>1.035678662377885</v>
       </c>
       <c r="K23" t="n">
-        <v>1.054304732781831</v>
+        <v>1.038943575634134</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9522358927204418</v>
+        <v>0.9782118366727653</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9751242023221759</v>
+        <v>0.9691933773208566</v>
       </c>
       <c r="N23" t="n">
-        <v>1.205550254749273</v>
+        <v>1.130109998234451</v>
       </c>
     </row>
   </sheetData>
